--- a/data/verben.xlsx
+++ b/data/verben.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jwt/Documents/Code/gelato/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210ED662-EB66-874E-BED1-E1B4D77F25D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2A844A-F013-CC4B-BCE7-5FB5DBC5364E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11700" yWindow="1720" windowWidth="28800" windowHeight="18000" xr2:uid="{0B0E448C-6A3E-9144-8554-BD4609B1F373}"/>
+    <workbookView xWindow="3920" yWindow="1680" windowWidth="28800" windowHeight="18000" xr2:uid="{0B0E448C-6A3E-9144-8554-BD4609B1F373}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Infinitiv</t>
   </si>
   <si>
-    <t>Präsens</t>
-  </si>
-  <si>
     <t xml:space="preserve">Präteritum </t>
   </si>
   <si>
@@ -53,9 +50,6 @@
     <t>Beispielsatz</t>
   </si>
   <si>
-    <t>abfahren</t>
-  </si>
-  <si>
     <t>fährt ab</t>
   </si>
   <si>
@@ -68,9 +62,6 @@
     <t>Der Bus fährt um 09.12 Uhr ab.</t>
   </si>
   <si>
-    <t>abfliegen</t>
-  </si>
-  <si>
     <t>flog ab</t>
   </si>
   <si>
@@ -80,9 +71,6 @@
     <t>Das Flugzeug ist pünktlich abgeflogen.</t>
   </si>
   <si>
-    <t>abgeben</t>
-  </si>
-  <si>
     <t>fliegt ab</t>
   </si>
   <si>
@@ -95,9 +83,6 @@
     <t>Wir gaben Flaschen und Schirme am Eingang ab.</t>
   </si>
   <si>
-    <t>abhängen</t>
-  </si>
-  <si>
     <t>hängt ab</t>
   </si>
   <si>
@@ -107,9 +92,6 @@
     <t>Es hängt von der Situation ab, wie schnell die Zeit vergeht.</t>
   </si>
   <si>
-    <t>abheben</t>
-  </si>
-  <si>
     <t>hebt ab</t>
   </si>
   <si>
@@ -126,6 +108,99 @@
   </si>
   <si>
     <t>hing ab</t>
+  </si>
+  <si>
+    <t>liest ab</t>
+  </si>
+  <si>
+    <t>las ab</t>
+  </si>
+  <si>
+    <t>hat abgelesen</t>
+  </si>
+  <si>
+    <t>Sie hat die Stichworte abgelesen.</t>
+  </si>
+  <si>
+    <t>nimmt ab</t>
+  </si>
+  <si>
+    <t>nahm ab</t>
+  </si>
+  <si>
+    <t>hat abgenommen</t>
+  </si>
+  <si>
+    <t>Wir nehmen Ihnen Ihre Sorgen ab.</t>
+  </si>
+  <si>
+    <t>rät ab</t>
+  </si>
+  <si>
+    <t>riet ab</t>
+  </si>
+  <si>
+    <t>hat abgeraten</t>
+  </si>
+  <si>
+    <t>Freunde haben Ihr abgeraten.</t>
+  </si>
+  <si>
+    <t>schließt ab</t>
+  </si>
+  <si>
+    <t>schloss ab</t>
+  </si>
+  <si>
+    <t>hat abgeschlossen</t>
+  </si>
+  <si>
+    <t>Hast du die Tür abgeschlossen?</t>
+  </si>
+  <si>
+    <t>zieht ab</t>
+  </si>
+  <si>
+    <t>zog ab</t>
+  </si>
+  <si>
+    <t>ist abgezogen</t>
+  </si>
+  <si>
+    <t>Er zog mit seiner Beute ab.</t>
+  </si>
+  <si>
+    <t>abfahren:depart</t>
+  </si>
+  <si>
+    <t>abfliegen:lift off</t>
+  </si>
+  <si>
+    <t>abgeben:hand in</t>
+  </si>
+  <si>
+    <t>abhängen:depend on</t>
+  </si>
+  <si>
+    <t>abheben :withdraw</t>
+  </si>
+  <si>
+    <t>ablesen:read off</t>
+  </si>
+  <si>
+    <t>abnehmen:take away</t>
+  </si>
+  <si>
+    <t>abraten:advice against</t>
+  </si>
+  <si>
+    <t>abschließen:close</t>
+  </si>
+  <si>
+    <t>abziehen:move away</t>
+  </si>
+  <si>
+    <t>Präsens (er/sie/es)</t>
   </si>
 </sst>
 </file>
@@ -477,15 +552,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64C24D0-21E9-B548-AE13-B1CBD67D146D}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="249" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.1640625" customWidth="1"/>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="49.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -494,101 +571,186 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
         <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
         <v>28</v>
       </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
